--- a/documentation/Small Lysimeter Log Book 2022.xlsx
+++ b/documentation/Small Lysimeter Log Book 2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lsimmons\Dropbox\Lysimeter Metadata\Lysimeter Log Books\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansleybr\Documents\GitHub\lysimeter-data-2023\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD3BD4F-1AE2-4161-B769-D10FEC21443A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3376C2FE-ABC6-4677-9CC7-29189AE127B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31980" yWindow="0" windowWidth="11670" windowHeight="15180" tabRatio="917" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" tabRatio="917" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SL Surface Irrigation" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="135">
   <si>
     <t>Small Lysimeter Irrigation Log</t>
   </si>
@@ -523,6 +523,27 @@
   </si>
   <si>
     <t>Snow</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>inter</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>estimate</t>
+  </si>
+  <si>
+    <t>kg/mV/V</t>
   </si>
 </sst>
 </file>
@@ -969,9 +990,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1338,9 +1357,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1378,9 +1397,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1413,26 +1432,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1465,26 +1467,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2204,11 +2189,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:P117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2227,39 +2212,133 @@
     <col min="12" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H3" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H4" s="54">
+        <v>368.53800000000001</v>
+      </c>
+      <c r="I4" s="42">
+        <f>(H4*1000)/(1000*2.341)</f>
+        <v>157.42759504485264</v>
+      </c>
+      <c r="J4" s="42">
+        <f>I4/25.4</f>
+        <v>6.1979368127894743</v>
+      </c>
+      <c r="K4" s="54">
+        <v>812.48800000000006</v>
+      </c>
+      <c r="L4" s="82">
+        <v>112.07</v>
+      </c>
+      <c r="M4" s="83">
+        <v>1</v>
+      </c>
+      <c r="N4" s="83">
+        <f>K4*M4-L4</f>
+        <v>700.41800000000012</v>
+      </c>
+      <c r="P4" s="42">
+        <f>N4/$H$4</f>
+        <v>1.9005312884967089</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H5" s="54">
+        <f>K4</f>
+        <v>812.48800000000006</v>
+      </c>
+      <c r="I5" s="42">
+        <f>(H5*1000)/(1000*2.341)</f>
+        <v>347.0687740281931</v>
+      </c>
+      <c r="J5" s="42">
+        <f>I5/25.4</f>
+        <v>13.664124961739887</v>
+      </c>
+      <c r="K5" s="54">
+        <v>812.48800000000006</v>
+      </c>
+      <c r="L5" s="82">
+        <v>112.07</v>
+      </c>
+      <c r="M5" s="83">
+        <v>2</v>
+      </c>
+      <c r="N5" s="83">
+        <f>K5*M5-L5</f>
+        <v>1512.9060000000002</v>
+      </c>
+      <c r="O5" s="42">
+        <f>N5-N4</f>
+        <v>812.48800000000006</v>
+      </c>
+      <c r="P5" s="42">
+        <f>N5/$H$4</f>
+        <v>4.1051560490370065</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="53"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K6" s="54">
+        <v>812.48800000000006</v>
+      </c>
+      <c r="L6" s="82">
+        <v>112.07</v>
+      </c>
+      <c r="M6" s="83">
+        <v>3</v>
+      </c>
+      <c r="N6" s="83">
+        <f>K6*M6-L6</f>
+        <v>2325.3939999999998</v>
+      </c>
+      <c r="O6" s="42">
+        <f t="shared" ref="O6:O7" si="0">N6-N5</f>
+        <v>812.4879999999996</v>
+      </c>
+      <c r="P6" s="42">
+        <f t="shared" ref="P5:P7" si="1">N6/$H$4</f>
+        <v>6.309780809577302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="79"/>
       <c r="B7" s="80" t="s">
         <v>3</v>
@@ -2267,16 +2346,34 @@
       <c r="C7" s="81">
         <v>6.1980000000000004</v>
       </c>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K7" s="54">
+        <v>812.48800000000006</v>
+      </c>
+      <c r="L7" s="82">
+        <v>112.07</v>
+      </c>
+      <c r="M7" s="83">
+        <v>4</v>
+      </c>
+      <c r="N7" s="83">
+        <f>K7*M7-L7</f>
+        <v>3137.8820000000001</v>
+      </c>
+      <c r="O7" s="42">
+        <f t="shared" si="0"/>
+        <v>812.48800000000028</v>
+      </c>
+      <c r="P7" s="42">
+        <f t="shared" si="1"/>
+        <v>8.5144055701175994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L8" s="82"/>
       <c r="M8" s="82"/>
       <c r="N8" s="82"/>
     </row>
-    <row r="9" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="66" t="s">
         <v>18</v>
       </c>
@@ -2314,7 +2411,7 @@
       <c r="M9" s="82"/>
       <c r="N9" s="82"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="69" t="s">
         <v>23</v>
       </c>
@@ -2337,22 +2434,22 @@
         <v>2.3357000000000001</v>
       </c>
       <c r="H10" s="60">
-        <f t="shared" ref="H10" si="0">G10-F10</f>
+        <f t="shared" ref="H10" si="2">G10-F10</f>
         <v>5.9000000000000163E-3</v>
       </c>
       <c r="I10" s="60">
-        <f t="shared" ref="I10:I11" si="1">H10*$C$7</f>
+        <f t="shared" ref="I10:I11" si="3">H10*$C$7</f>
         <v>3.6568200000000106E-2</v>
       </c>
       <c r="J10" s="60">
         <v>2.2725999999997524E-3</v>
       </c>
       <c r="K10" s="60">
-        <f t="shared" ref="K10" si="2">I10+J10</f>
+        <f t="shared" ref="K10" si="4">I10+J10</f>
         <v>3.8840799999999856E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="69" t="s">
         <v>23</v>
       </c>
@@ -2375,22 +2472,22 @@
         <v>2.4283000000000001</v>
       </c>
       <c r="H11" s="60">
-        <f t="shared" ref="H11" si="3">G11-F11</f>
+        <f t="shared" ref="H11" si="5">G11-F11</f>
         <v>9.2799999999999994E-2</v>
       </c>
       <c r="I11" s="60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.57517439999999997</v>
       </c>
       <c r="J11" s="60">
         <v>8.7391799999990444E-2</v>
       </c>
       <c r="K11" s="60">
-        <f t="shared" ref="K11" si="4">I11+J11</f>
+        <f t="shared" ref="K11" si="6">I11+J11</f>
         <v>0.66256619999999045</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="69" t="s">
         <v>23</v>
       </c>
@@ -2413,7 +2510,7 @@
         <v>2.5653999999999999</v>
       </c>
       <c r="H12" s="60">
-        <f t="shared" ref="H12" si="5">G12-F12</f>
+        <f t="shared" ref="H12" si="7">G12-F12</f>
         <v>0.16639999999999988</v>
       </c>
       <c r="I12" s="60">
@@ -2424,11 +2521,11 @@
         <v>6.9830800000004273E-2</v>
       </c>
       <c r="K12" s="60">
-        <f t="shared" ref="K12" si="6">I12+J12</f>
+        <f t="shared" ref="K12" si="8">I12+J12</f>
         <v>1.1011780000000035</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
         <v>24</v>
       </c>
@@ -2451,22 +2548,22 @@
         <v>2.3666999999999998</v>
       </c>
       <c r="H13" s="60">
-        <f t="shared" ref="H13:H14" si="7">G13-F13</f>
+        <f t="shared" ref="H13:H14" si="9">G13-F13</f>
         <v>2.4699999999999722E-2</v>
       </c>
       <c r="I13" s="60">
-        <f t="shared" ref="I13:I14" si="8">H13*$C$7</f>
+        <f t="shared" ref="I13:I14" si="10">H13*$C$7</f>
         <v>0.1530905999999983</v>
       </c>
       <c r="J13" s="60">
         <v>3.9512249999995697E-2</v>
       </c>
       <c r="K13" s="60">
-        <f t="shared" ref="K13:K14" si="9">I13+J13</f>
+        <f t="shared" ref="K13:K14" si="11">I13+J13</f>
         <v>0.192602849999994</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="69" t="s">
         <v>24</v>
       </c>
@@ -2489,22 +2586,22 @@
         <v>2.3374999999999999</v>
       </c>
       <c r="H14" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.079999999999993E-2</v>
       </c>
       <c r="I14" s="60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.12891839999999957</v>
       </c>
       <c r="J14" s="60">
         <v>6.8177999999992486E-3</v>
       </c>
       <c r="K14" s="60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.13573619999999881</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="69" t="s">
         <v>24</v>
       </c>
@@ -2527,22 +2624,22 @@
         <v>2.6646000000000001</v>
       </c>
       <c r="H15" s="60">
-        <f t="shared" ref="H15:H17" si="10">G15-F15</f>
+        <f t="shared" ref="H15:H17" si="12">G15-F15</f>
         <v>4.9999999999998934E-3</v>
       </c>
       <c r="I15" s="60">
-        <f t="shared" ref="I15:I17" si="11">H15*$C$7</f>
+        <f t="shared" ref="I15:I17" si="13">H15*$C$7</f>
         <v>3.0989999999999341E-2</v>
       </c>
       <c r="J15" s="60">
         <v>4.9067499999994636E-3</v>
       </c>
       <c r="K15" s="60">
-        <f t="shared" ref="K15:K17" si="12">I15+J15</f>
+        <f t="shared" ref="K15:K17" si="14">I15+J15</f>
         <v>3.5896749999998805E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="69" t="s">
         <v>24</v>
       </c>
@@ -2565,18 +2662,18 @@
         <v>2.6074999999999999</v>
       </c>
       <c r="H16" s="60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7.5699999999999878E-2</v>
       </c>
       <c r="I16" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.46918859999999929</v>
       </c>
       <c r="J16" s="60">
         <v>3.8737499999978555E-3</v>
       </c>
       <c r="K16" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.47306234999999713</v>
       </c>
     </row>
@@ -2603,18 +2700,18 @@
         <v>2.6145</v>
       </c>
       <c r="H17" s="60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6.6000000000001613E-3</v>
       </c>
       <c r="I17" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.0906800000000999E-2</v>
       </c>
       <c r="J17" s="60">
         <v>0</v>
       </c>
       <c r="K17" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4.0906800000000999E-2</v>
       </c>
     </row>
@@ -2641,18 +2738,18 @@
         <v>2.6082999999999998</v>
       </c>
       <c r="H18" s="60">
-        <f t="shared" ref="H18:H21" si="13">G18-F18</f>
+        <f t="shared" ref="H18:H21" si="15">G18-F18</f>
         <v>1.3799999999999812E-2</v>
       </c>
       <c r="I18" s="60">
-        <f t="shared" ref="I18:I21" si="14">H18*$C$7</f>
+        <f t="shared" ref="I18:I21" si="16">H18*$C$7</f>
         <v>8.5532399999998843E-2</v>
       </c>
       <c r="J18" s="60">
         <v>0</v>
       </c>
       <c r="K18" s="60">
-        <f t="shared" ref="K18:K53" si="15">I18+J18</f>
+        <f t="shared" ref="K18:K53" si="17">I18+J18</f>
         <v>8.5532399999998843E-2</v>
       </c>
     </row>
@@ -2679,18 +2776,18 @@
         <v>2.6355</v>
       </c>
       <c r="H19" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.7200000000000113E-2</v>
       </c>
       <c r="I19" s="60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.16858560000000072</v>
       </c>
       <c r="J19" s="60">
         <v>2.1873775000004519E-2</v>
       </c>
       <c r="K19" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.19045937500000523</v>
       </c>
     </row>
@@ -2717,18 +2814,18 @@
         <v>2.6238999999999999</v>
       </c>
       <c r="H20" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.0299999999999763E-2</v>
       </c>
       <c r="I20" s="60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.12581939999999853</v>
       </c>
       <c r="J20" s="60">
         <v>6.8177999999942153E-3</v>
       </c>
       <c r="K20" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.13263719999999274</v>
       </c>
     </row>
@@ -2755,18 +2852,18 @@
         <v>2.6873999999999998</v>
       </c>
       <c r="H21" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.3999999999999613E-2</v>
       </c>
       <c r="I21" s="60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.39667199999999764</v>
       </c>
       <c r="J21" s="60">
         <v>1.5365874999991477E-2</v>
       </c>
       <c r="K21" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.41203787499998912</v>
       </c>
     </row>
@@ -2793,18 +2890,18 @@
         <v>2.5547</v>
       </c>
       <c r="H22" s="60">
-        <f t="shared" ref="H22:H41" si="16">G22-F22</f>
+        <f t="shared" ref="H22:H41" si="18">G22-F22</f>
         <v>3.9400000000000102E-2</v>
       </c>
       <c r="I22" s="60">
-        <f t="shared" ref="I22:I41" si="17">H22*$C$7</f>
+        <f t="shared" ref="I22:I41" si="19">H22*$C$7</f>
         <v>0.24420120000000065</v>
       </c>
       <c r="J22" s="60">
         <v>3.2281250000010774E-2</v>
       </c>
       <c r="K22" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.27648245000001143</v>
       </c>
     </row>
@@ -2831,18 +2928,18 @@
         <v>2.4912999999999998</v>
       </c>
       <c r="H23" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.739999999999986E-2</v>
       </c>
       <c r="I23" s="60">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.10784519999999914</v>
       </c>
       <c r="J23" s="60">
         <v>6.9727499999997873E-3</v>
       </c>
       <c r="K23" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.11481794999999893</v>
       </c>
     </row>
@@ -2869,18 +2966,18 @@
         <v>3.4436</v>
       </c>
       <c r="H24" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.4999999999999467E-3</v>
       </c>
       <c r="I24" s="60">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.549499999999967E-2</v>
       </c>
       <c r="J24" s="60">
         <v>1.3170750000000377E-3</v>
       </c>
       <c r="K24" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.6812074999999708E-2</v>
       </c>
     </row>
@@ -2907,18 +3004,18 @@
         <v>3.4108000000000001</v>
       </c>
       <c r="H25" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.2000000000002018E-3</v>
       </c>
       <c r="I25" s="60">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.3635600000001252E-2</v>
       </c>
       <c r="J25" s="60">
         <v>3.6155000000007907E-4</v>
       </c>
       <c r="K25" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.399715000000133E-2</v>
       </c>
     </row>
@@ -2945,18 +3042,18 @@
         <v>3.3895</v>
       </c>
       <c r="H26" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.0000000000012292E-4</v>
       </c>
       <c r="I26" s="60">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.5782000000007626E-3</v>
       </c>
       <c r="J26" s="60">
         <v>1.2912500000004327E-3</v>
       </c>
       <c r="K26" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.8694500000011953E-3</v>
       </c>
     </row>
@@ -2983,18 +3080,18 @@
         <v>3.4224000000000001</v>
       </c>
       <c r="H27" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.750000000000032E-2</v>
       </c>
       <c r="I27" s="60">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.29440500000000203</v>
       </c>
       <c r="J27" s="60">
         <v>3.5328600000013526E-2</v>
       </c>
       <c r="K27" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.32973360000001556</v>
       </c>
     </row>
@@ -3021,18 +3118,18 @@
         <v>3.3117000000000001</v>
       </c>
       <c r="H28" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.1999999999998678E-3</v>
       </c>
       <c r="I28" s="60">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>7.4375999999991812E-3</v>
       </c>
       <c r="J28" s="60">
         <v>1.4461999999998488E-3</v>
       </c>
       <c r="K28" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8.8837999999990293E-3</v>
       </c>
     </row>
@@ -3059,18 +3156,18 @@
         <v>3.3418999999999999</v>
       </c>
       <c r="H29" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="I29" s="60">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.3098999999999989</v>
       </c>
       <c r="J29" s="60">
         <v>1.1414649999996805E-2</v>
       </c>
       <c r="K29" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.32131464999999571</v>
       </c>
     </row>
@@ -3097,18 +3194,18 @@
         <v>3.2927</v>
       </c>
       <c r="H30" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.1000000000001009E-3</v>
       </c>
       <c r="I30" s="60">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6.817800000000626E-3</v>
       </c>
       <c r="J30" s="60">
         <v>7.4376000000001084E-3</v>
       </c>
       <c r="K30" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.4255400000000733E-2</v>
       </c>
     </row>
@@ -3135,18 +3232,18 @@
         <v>3.2267999999999999</v>
       </c>
       <c r="H31" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5.1999999999998714E-3</v>
       </c>
       <c r="I31" s="60">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.2229599999999206E-2</v>
       </c>
       <c r="J31" s="60">
         <v>1.0846499999998807E-3</v>
       </c>
       <c r="K31" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.3314249999999088E-2</v>
       </c>
     </row>
@@ -3173,18 +3270,18 @@
         <v>3.0247000000000002</v>
       </c>
       <c r="H32" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5.3400000000000336E-2</v>
       </c>
       <c r="I32" s="60">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.33097320000000208</v>
       </c>
       <c r="J32" s="60">
         <v>3.7188000000006262E-3</v>
       </c>
       <c r="K32" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.33469200000000271</v>
       </c>
     </row>
@@ -3211,18 +3308,18 @@
         <v>2.9845999999999999</v>
       </c>
       <c r="H33" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.1299999999999883E-2</v>
       </c>
       <c r="I33" s="60">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.19399739999999929</v>
       </c>
       <c r="J33" s="60">
         <v>4.4935499999998619E-3</v>
       </c>
       <c r="K33" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.19849094999999917</v>
       </c>
     </row>
@@ -3249,18 +3346,18 @@
         <v>2.9291</v>
       </c>
       <c r="H34" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>7.5099999999999945E-2</v>
       </c>
       <c r="I34" s="60">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.46546979999999971</v>
       </c>
       <c r="J34" s="60">
         <v>2.1486400000001325E-2</v>
       </c>
       <c r="K34" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.48695620000000106</v>
       </c>
     </row>
@@ -3287,18 +3384,18 @@
         <v>2.9302999999999999</v>
       </c>
       <c r="H35" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.5000000000000568E-3</v>
       </c>
       <c r="I35" s="60">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.2970000000003536E-3</v>
       </c>
       <c r="J35" s="60">
         <v>2.3242499999945828E-4</v>
       </c>
       <c r="K35" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.529424999999812E-3</v>
       </c>
     </row>
@@ -3325,18 +3422,18 @@
         <v>2.9083000000000001</v>
       </c>
       <c r="H36" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.5000000000000568E-3</v>
       </c>
       <c r="I36" s="60">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.2970000000003536E-3</v>
       </c>
       <c r="J36" s="60">
         <v>2.0659999999997707E-3</v>
       </c>
       <c r="K36" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.1363000000000125E-2</v>
       </c>
     </row>
@@ -3363,18 +3460,18 @@
         <v>2.9466999999999999</v>
       </c>
       <c r="H37" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6.6899999999999959E-2</v>
       </c>
       <c r="I37" s="60">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.4146461999999998</v>
       </c>
       <c r="J37" s="60">
         <v>1.4771899999998389E-2</v>
       </c>
       <c r="K37" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.42941809999999819</v>
       </c>
     </row>
@@ -3401,18 +3498,18 @@
         <v>2.8881999999999999</v>
       </c>
       <c r="H38" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5.7999999999998053E-3</v>
       </c>
       <c r="I38" s="60">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.5948399999998798E-2</v>
       </c>
       <c r="J38" s="60">
         <v>6.7144999999843591E-4</v>
       </c>
       <c r="K38" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.6619849999997234E-2</v>
       </c>
     </row>
@@ -3439,18 +3536,18 @@
         <v>2.8904000000000001</v>
       </c>
       <c r="H39" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.2000000000002018E-3</v>
       </c>
       <c r="I39" s="60">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.3635600000001252E-2</v>
       </c>
       <c r="J39" s="60">
         <v>0</v>
       </c>
       <c r="K39" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.3635600000001252E-2</v>
       </c>
     </row>
@@ -3477,18 +3574,18 @@
         <v>2.702</v>
       </c>
       <c r="H40" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5.4199999999999804E-2</v>
       </c>
       <c r="I40" s="60">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.33593159999999883</v>
       </c>
       <c r="J40" s="60">
         <v>6.8694500000000599E-3</v>
       </c>
       <c r="K40" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.34280104999999889</v>
       </c>
     </row>
@@ -3515,18 +3612,18 @@
         <v>2.9996</v>
       </c>
       <c r="H41" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.1299999999999866E-2</v>
       </c>
       <c r="I41" s="60">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>7.0037399999999167E-2</v>
       </c>
       <c r="J41" s="60">
         <v>5.5781999999993913E-3</v>
       </c>
       <c r="K41" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.5615599999998562E-2</v>
       </c>
     </row>
@@ -3553,18 +3650,18 @@
         <v>3.0123000000000002</v>
       </c>
       <c r="H42" s="60">
-        <f t="shared" ref="H42:H53" si="18">G42-F42</f>
+        <f t="shared" ref="H42:H53" si="20">G42-F42</f>
         <v>1.3400000000000301E-2</v>
       </c>
       <c r="I42" s="60">
-        <f t="shared" ref="I42:I53" si="19">H42*$C$7</f>
+        <f t="shared" ref="I42:I53" si="21">H42*$C$7</f>
         <v>8.3053200000001867E-2</v>
       </c>
       <c r="J42" s="60">
         <v>2.4651136363673795E-4</v>
       </c>
       <c r="K42" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8.3299711363638604E-2</v>
       </c>
     </row>
@@ -3591,18 +3688,18 @@
         <v>3.2381000000000002</v>
       </c>
       <c r="H43" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.2511000000000001</v>
       </c>
       <c r="I43" s="60">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.5563178000000006</v>
       </c>
       <c r="J43" s="60">
         <v>3.3572499999996318E-3</v>
       </c>
       <c r="K43" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.5596750500000003</v>
       </c>
     </row>
@@ -3629,18 +3726,18 @@
         <v>3.2387000000000001</v>
       </c>
       <c r="H44" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>7.0000000000014495E-4</v>
       </c>
       <c r="I44" s="60">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.3386000000008983E-3</v>
       </c>
       <c r="J44" s="60">
         <v>0</v>
       </c>
       <c r="K44" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.3386000000008983E-3</v>
       </c>
     </row>
@@ -3667,18 +3764,18 @@
         <v>2.9954999999999998</v>
       </c>
       <c r="H45" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.2599999999999962E-2</v>
       </c>
       <c r="I45" s="60">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.20205479999999978</v>
       </c>
       <c r="J45" s="60">
         <v>4.3902500000001067E-3</v>
       </c>
       <c r="K45" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.20644504999999988</v>
       </c>
     </row>
@@ -3705,18 +3802,18 @@
         <v>2.9992000000000001</v>
       </c>
       <c r="H46" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>4.7999999999999154E-3</v>
       </c>
       <c r="I46" s="60">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.9750399999999479E-2</v>
       </c>
       <c r="J46" s="60">
         <v>8.2639999999991026E-4</v>
       </c>
       <c r="K46" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.0576799999999391E-2</v>
       </c>
     </row>
@@ -3743,18 +3840,18 @@
         <v>2.9243999999999999</v>
       </c>
       <c r="H47" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>6.549999999999967E-2</v>
       </c>
       <c r="I47" s="60">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.40596899999999797</v>
       </c>
       <c r="J47" s="60">
         <v>7.2309999999980844E-3</v>
       </c>
       <c r="K47" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.41319999999999607</v>
       </c>
     </row>
@@ -3781,18 +3878,18 @@
         <v>2.8889999999999998</v>
       </c>
       <c r="H48" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.7899999999999814E-2</v>
       </c>
       <c r="I48" s="60">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.17292419999999886</v>
       </c>
       <c r="J48" s="60">
         <v>2.6341500000000469E-3</v>
       </c>
       <c r="K48" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.17555834999999892</v>
       </c>
     </row>
@@ -3819,18 +3916,18 @@
         <v>2.8919000000000001</v>
       </c>
       <c r="H49" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5.5000000000000604E-3</v>
       </c>
       <c r="I49" s="60">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3.4089000000000376E-2</v>
       </c>
       <c r="J49" s="60">
         <v>7.1277000000005367E-3</v>
       </c>
       <c r="K49" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.1216700000000911E-2</v>
       </c>
     </row>
@@ -3857,18 +3954,18 @@
         <v>2.734</v>
       </c>
       <c r="H50" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>7.8999999999997961E-3</v>
       </c>
       <c r="I50" s="60">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.8964199999998737E-2</v>
       </c>
       <c r="J50" s="60">
         <v>7.2051749999938715E-3</v>
       </c>
       <c r="K50" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.6169374999992611E-2</v>
       </c>
     </row>
@@ -3895,18 +3992,18 @@
         <v>2.9813000000000001</v>
       </c>
       <c r="H51" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5.6000000000002714E-3</v>
       </c>
       <c r="I51" s="60">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3.4708800000001684E-2</v>
       </c>
       <c r="J51" s="60">
         <v>8.264000000008276E-4</v>
       </c>
       <c r="K51" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.5535200000002515E-2</v>
       </c>
     </row>
@@ -3933,18 +4030,18 @@
         <v>2.9819</v>
       </c>
       <c r="H52" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>9.9999999999988987E-4</v>
       </c>
       <c r="I52" s="60">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>6.1979999999993178E-3</v>
       </c>
       <c r="J52" s="60">
         <v>0</v>
       </c>
       <c r="K52" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.1979999999993178E-3</v>
       </c>
     </row>
@@ -3971,18 +4068,18 @@
         <v>2.9828999999999999</v>
       </c>
       <c r="H53" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.1000000000001009E-3</v>
       </c>
       <c r="I53" s="60">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>6.817800000000626E-3</v>
       </c>
       <c r="J53" s="60">
         <v>0</v>
       </c>
       <c r="K53" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.817800000000626E-3</v>
       </c>
     </row>
@@ -4009,18 +4106,18 @@
         <v>2.7892000000000001</v>
       </c>
       <c r="H54" s="60">
-        <f t="shared" ref="H54" si="20">G54-F54</f>
+        <f t="shared" ref="H54" si="22">G54-F54</f>
         <v>2.0999999999999908E-3</v>
       </c>
       <c r="I54" s="60">
-        <f t="shared" ref="I54" si="21">H54*$C$7</f>
+        <f t="shared" ref="I54" si="23">H54*$C$7</f>
         <v>1.3015799999999944E-2</v>
       </c>
       <c r="J54" s="60">
         <v>2.5825000000008532E-3</v>
       </c>
       <c r="K54" s="60">
-        <f t="shared" ref="K54" si="22">I54+J54</f>
+        <f t="shared" ref="K54" si="24">I54+J54</f>
         <v>1.5598300000000797E-2</v>
       </c>
     </row>
@@ -4047,18 +4144,18 @@
         <v>2.8052000000000001</v>
       </c>
       <c r="H55" s="60">
-        <f t="shared" ref="H55:H56" si="23">G55-F55</f>
+        <f t="shared" ref="H55:H56" si="25">G55-F55</f>
         <v>4.1999999999999815E-3</v>
       </c>
       <c r="I55" s="60">
-        <f t="shared" ref="I55:I56" si="24">H55*$C$7</f>
+        <f t="shared" ref="I55:I56" si="26">H55*$C$7</f>
         <v>2.6031599999999887E-2</v>
       </c>
       <c r="J55" s="60">
         <v>0</v>
       </c>
       <c r="K55" s="60">
-        <f t="shared" ref="K55:K56" si="25">I55+J55</f>
+        <f t="shared" ref="K55:K56" si="27">I55+J55</f>
         <v>2.6031599999999887E-2</v>
       </c>
     </row>
@@ -4085,18 +4182,18 @@
         <v>2.7972999999999999</v>
       </c>
       <c r="H56" s="60">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6.6999999999999282E-3</v>
       </c>
       <c r="I56" s="60">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>4.152659999999956E-2</v>
       </c>
       <c r="J56" s="60">
         <v>0</v>
       </c>
       <c r="K56" s="60">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.152659999999956E-2</v>
       </c>
     </row>
@@ -4147,18 +4244,18 @@
         <v>2.5417000000000001</v>
       </c>
       <c r="H59" s="60">
-        <f t="shared" ref="H59" si="26">G59-F59</f>
+        <f t="shared" ref="H59" si="28">G59-F59</f>
         <v>1.0099999999999998E-2</v>
       </c>
       <c r="I59" s="60">
-        <f t="shared" ref="I59" si="27">H59*$C$7</f>
+        <f t="shared" ref="I59" si="29">H59*$C$7</f>
         <v>6.2599799999999997E-2</v>
       </c>
       <c r="J59" s="60">
         <v>8.2640000000003364E-4</v>
       </c>
       <c r="K59" s="60">
-        <f t="shared" ref="K59" si="28">I59+J59</f>
+        <f t="shared" ref="K59" si="30">I59+J59</f>
         <v>6.342620000000003E-2</v>
       </c>
     </row>
@@ -4185,18 +4282,18 @@
         <v>2.4914999999999998</v>
       </c>
       <c r="H60" s="60">
-        <f t="shared" ref="H60" si="29">G60-F60</f>
+        <f t="shared" ref="H60" si="31">G60-F60</f>
         <v>1.1599999999999611E-2</v>
       </c>
       <c r="I60" s="60">
-        <f t="shared" ref="I60" si="30">H60*$C$7</f>
+        <f t="shared" ref="I60" si="32">H60*$C$7</f>
         <v>7.1896799999997596E-2</v>
       </c>
       <c r="J60" s="60">
         <v>8.0057499999988181E-4</v>
       </c>
       <c r="K60" s="60">
-        <f t="shared" ref="K60" si="31">I60+J60</f>
+        <f t="shared" ref="K60" si="33">I60+J60</f>
         <v>7.2697374999997483E-2</v>
       </c>
     </row>
@@ -4235,7 +4332,7 @@
         <v>2.3574000000000002</v>
       </c>
       <c r="H62" s="75">
-        <f t="shared" ref="H62" si="32">G62-F62</f>
+        <f t="shared" ref="H62" si="34">G62-F62</f>
         <v>-0.1509999999999998</v>
       </c>
       <c r="I62" s="75">
@@ -4246,7 +4343,7 @@
         <v>1.9885250000004099E-3</v>
       </c>
       <c r="K62" s="75">
-        <f t="shared" ref="K62:K71" si="33">I62+J62</f>
+        <f t="shared" ref="K62:K71" si="35">I62+J62</f>
         <v>-0.93390947499999832</v>
       </c>
     </row>
@@ -4273,18 +4370,18 @@
         <v>3.9601999999999999</v>
       </c>
       <c r="H63" s="75">
-        <f t="shared" ref="H63:H66" si="34">G63-F63</f>
+        <f t="shared" ref="H63:H66" si="36">G63-F63</f>
         <v>-0.11900000000000022</v>
       </c>
       <c r="I63" s="75">
-        <f t="shared" ref="I63:I66" si="35">H63*$C$7</f>
+        <f t="shared" ref="I63:I66" si="37">H63*$C$7</f>
         <v>-0.73756200000000138</v>
       </c>
       <c r="J63" s="75">
         <v>6.2754750000001509E-3</v>
       </c>
       <c r="K63" s="75">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-0.73128652500000124</v>
       </c>
     </row>
@@ -4311,18 +4408,18 @@
         <v>3.2042999999999999</v>
       </c>
       <c r="H64" s="75">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-0.15060000000000029</v>
       </c>
       <c r="I64" s="75">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-0.93341880000000188</v>
       </c>
       <c r="J64" s="75">
         <v>6.3529499999996544E-3</v>
       </c>
       <c r="K64" s="75">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-0.92706585000000219</v>
       </c>
     </row>
@@ -4349,18 +4446,18 @@
         <v>3.1244999999999998</v>
       </c>
       <c r="H65" s="75">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-0.16420000000000012</v>
       </c>
       <c r="I65" s="75">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-1.0177116000000008</v>
       </c>
       <c r="J65" s="75">
         <v>8.9096249999998725E-3</v>
       </c>
       <c r="K65" s="75">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-1.008801975000001</v>
       </c>
     </row>
@@ -4387,18 +4484,18 @@
         <v>2.8851</v>
       </c>
       <c r="H66" s="75">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-8.9100000000000179E-2</v>
       </c>
       <c r="I66" s="75">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-0.55224180000000112</v>
       </c>
       <c r="J66" s="75">
         <v>4.5451999999985828E-3</v>
       </c>
       <c r="K66" s="75">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-0.54769660000000253</v>
       </c>
     </row>
@@ -4425,18 +4522,18 @@
         <v>2.7877000000000001</v>
       </c>
       <c r="H67" s="75">
-        <f t="shared" ref="H67" si="36">G67-F67</f>
+        <f t="shared" ref="H67" si="38">G67-F67</f>
         <v>-0.15810000000000013</v>
       </c>
       <c r="I67" s="75">
-        <f t="shared" ref="I67" si="37">H67*$C$7</f>
+        <f t="shared" ref="I67" si="39">H67*$C$7</f>
         <v>-0.97990380000000088</v>
       </c>
       <c r="J67" s="75">
         <v>2.5824999999997134E-4</v>
       </c>
       <c r="K67" s="75">
-        <f t="shared" ref="K67" si="38">I67+J67</f>
+        <f t="shared" ref="K67" si="40">I67+J67</f>
         <v>-0.97964555000000086</v>
       </c>
     </row>
@@ -4489,18 +4586,18 @@
         <v>2.5217000000000001</v>
       </c>
       <c r="H70" s="75">
-        <f t="shared" ref="H70:H71" si="39">G70-F70</f>
+        <f t="shared" ref="H70:H71" si="41">G70-F70</f>
         <v>-2.2999999999999687E-3</v>
       </c>
       <c r="I70" s="75">
-        <f t="shared" ref="I70:I71" si="40">H70*$C$7</f>
+        <f t="shared" ref="I70:I71" si="42">H70*$C$7</f>
         <v>-1.4255399999999807E-2</v>
       </c>
       <c r="J70" s="75">
         <v>6.4562499999964171E-4</v>
       </c>
       <c r="K70" s="75">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-1.3609775000000166E-2</v>
       </c>
     </row>
@@ -4527,18 +4624,18 @@
         <v>2.7056</v>
       </c>
       <c r="H71" s="75">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-4.5999999999999375E-3</v>
       </c>
       <c r="I71" s="75">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-2.8510799999999614E-2</v>
       </c>
       <c r="J71" s="75">
         <v>4.1836499999998696E-3</v>
       </c>
       <c r="K71" s="75">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-2.4327149999999746E-2</v>
       </c>
     </row>
@@ -5119,9 +5216,6 @@
       <c r="K117" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="M4:N4"/>
-  </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="56" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
